--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data9.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data9.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.30469186462473985</v>
+        <v>0.3047062276353122</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6935631061358029</v>
+        <v>-0.6935082039365782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16467150429961377</v>
+        <v>0.1646784857401989</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11151063390367652</v>
+        <v>0.11155302228987757</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
